--- a/src/main/resources/script/db/init-data/hzero_message/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_admin/hzero-service-route.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD9485A-5E15-4188-8BFD-DCF29ADCDE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="路由" r:id="rId5" sheetId="2"/>
+    <sheet name="路由" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2025,9 +2026,6 @@
     <t>hadm_service-8</t>
   </si>
   <si>
-    <t>hzero-message</t>
-  </si>
-  <si>
     <t>服务路由配置</t>
   </si>
   <si>
@@ -2071,13 +2069,16 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>choerodon-message</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33">
     <font>
       <sz val="12"/>
@@ -2197,79 +2198,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2410,7 +2426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2462,6 +2478,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2477,25 +2508,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2835,36 +2852,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2873,21 +2890,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2998,11 +3015,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3040,19 +3057,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3076,39 +3093,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:13">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:13">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3118,13 +3142,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3137,21 +3161,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
+      <c r="F8" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3159,63 +3183,66 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s" s="42">
+      <c r="E10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s" s="43">
+      <c r="F10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s" s="44">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s" s="45">
+      <c r="I10" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I10" t="s" s="46">
+      <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>68</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>70</v>
       </c>
-      <c r="M10" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
+      <c r="F11" t="str">
+        <f>路由!$E$8</f>
+        <v>hadm_service-8</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="F11">
-        <f>路由!$E$8</f>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>74</v>
       </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>